--- a/biology/Histoire de la zoologie et de la botanique/Jules_Künckel_d'Herculais/Jules_Künckel_d'Herculais.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jules_Künckel_d'Herculais/Jules_Künckel_d'Herculais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jules_K%C3%BCnckel_d%27Herculais</t>
+          <t>Jules_Künckel_d'Herculais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Alexandre Jules Künckel d'Herculais est un entomologiste français, né le 10 février 1843 à Paris et mort le 22 décembre 1918 à Conflans-Sainte-Honorine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jules_K%C3%BCnckel_d%27Herculais</t>
+          <t>Jules_Künckel_d'Herculais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le neveu du chimiste français, Théophile-Jules Pelouze (1807-1867) et fils de médecin. Il perd son père à l’âge de deux ans. Après son baccalauréat de sciences en 1860, il entre à l’École des mines en 1861. Il préfère, en 1864, suivre des cours moins théoriques au Collège de France, au Muséum national d'histoire naturelle et à la Sorbonne.
 Il rencontre alors Émile Blanchard (1819-1900) dont il devient l’élève privé ainsi que son secrétaire particulier.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jules_K%C3%BCnckel_d%27Herculais</t>
+          <t>Jules_Künckel_d'Herculais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Philippe Jaussaud &amp; Édouard R. Brygoo (2004). Du Jardin au Muséum en 516 biographies. Muséum national d’histoire naturelle de Paris : 630 p.  (ISBN 2-85653-565-8)</t>
         </is>
